--- a/tasks_students/score.xlsx
+++ b/tasks_students/score.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matvey/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matvey/Documents/GitHub/Python2023_b05/tasks_students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8B769A-23FE-9B43-B3D1-77BA87B5EC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59B3C3E-6D49-1A4E-975C-872874A702A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="3240" windowWidth="28040" windowHeight="17360" xr2:uid="{C2B1B15D-07C6-F44C-94CE-B6E1C9EFE0D0}"/>
+    <workbookView xWindow="6520" yWindow="3240" windowWidth="28040" windowHeight="17360" xr2:uid="{C2B1B15D-07C6-F44C-94CE-B6E1C9EFE0D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -137,9 +137,6 @@
     <t>vm</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>Excel</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>peak</t>
+  </si>
+  <si>
+    <t>other</t>
   </si>
 </sst>
 </file>
@@ -538,9 +538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F69128-FF8F-9840-BA86-1A0C666A5AC1}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -550,12 +548,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -563,10 +561,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
         <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -574,7 +572,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -582,7 +580,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -590,7 +588,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -830,7 +828,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>10</v>
@@ -851,12 +849,12 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43">
         <v>20</v>
@@ -864,12 +862,12 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45">
         <v>20</v>
@@ -877,7 +875,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46">
         <v>15</v>
@@ -885,7 +883,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C47">
         <v>15</v>

--- a/tasks_students/score.xlsx
+++ b/tasks_students/score.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matvey/Documents/GitHub/Python2023_b05/tasks_students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59B3C3E-6D49-1A4E-975C-872874A702A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304E7D76-AFFB-174E-B8C4-A586C88F77E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6520" yWindow="3240" windowWidth="28040" windowHeight="17360" xr2:uid="{C2B1B15D-07C6-F44C-94CE-B6E1C9EFE0D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>01.1.PythonTools</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>other</t>
+  </si>
+  <si>
+    <t>СУММА</t>
   </si>
 </sst>
 </file>
@@ -536,9 +539,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F69128-FF8F-9840-BA86-1A0C666A5AC1}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -889,6 +894,15 @@
         <v>15</v>
       </c>
     </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <f>SUM(C1:C47)</f>
+        <v>604.12427684272393</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tasks_students/score.xlsx
+++ b/tasks_students/score.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matvey/Documents/GitHub/Python2023_b05/tasks_students/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matvey/Desktop/tasks_students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304E7D76-AFFB-174E-B8C4-A586C88F77E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AEEFA1-4891-4A44-A2AA-2E0690F9919C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6520" yWindow="3240" windowWidth="28040" windowHeight="17360" xr2:uid="{C2B1B15D-07C6-F44C-94CE-B6E1C9EFE0D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>01.1.PythonTools</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>other</t>
-  </si>
-  <si>
-    <t>СУММА</t>
   </si>
 </sst>
 </file>
@@ -539,11 +536,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F69128-FF8F-9840-BA86-1A0C666A5AC1}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C47"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -894,15 +889,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48">
-        <f>SUM(C1:C47)</f>
-        <v>604.12427684272393</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tasks_students/score.xlsx
+++ b/tasks_students/score.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matvey/Desktop/tasks_students/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matvey/Documents/GitHub/Python2023_b05/tasks_students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AEEFA1-4891-4A44-A2AA-2E0690F9919C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA203585-58A4-9947-9156-3B35FD6315AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6520" yWindow="3240" windowWidth="28040" windowHeight="17360" xr2:uid="{C2B1B15D-07C6-F44C-94CE-B6E1C9EFE0D0}"/>
+    <workbookView xWindow="6520" yWindow="3220" windowWidth="28040" windowHeight="17360" xr2:uid="{C2B1B15D-07C6-F44C-94CE-B6E1C9EFE0D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>01.1.PythonTools</t>
   </si>
@@ -177,6 +177,15 @@
   </si>
   <si>
     <t>other</t>
+  </si>
+  <si>
+    <t>СУММА</t>
+  </si>
+  <si>
+    <t>is_mountian</t>
+  </si>
+  <si>
+    <t>palindrome</t>
   </si>
 </sst>
 </file>
@@ -536,9 +545,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F69128-FF8F-9840-BA86-1A0C666A5AC1}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -595,58 +606,58 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>3</v>
+      <c r="C10">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
+      <c r="A12" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -654,86 +665,86 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>13</v>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21">
-        <v>10</v>
+      <c r="A21" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>16</v>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25">
-        <v>10</v>
+      <c r="A25" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -741,152 +752,177 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>22</v>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31">
-        <v>10</v>
+      <c r="A31" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>27</v>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38">
-        <v>10</v>
+      <c r="A38" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C39">
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>32</v>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C41">
-        <v>264.12427684272399</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C43">
-        <v>20</v>
+        <v>264.12427684272399</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C45">
         <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46">
-        <v>15</v>
+      <c r="A46" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>41</v>
       </c>
-      <c r="C47">
+      <c r="C49">
         <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50">
+        <f>SUM(C1:C49)</f>
+        <v>614.12427684272393</v>
       </c>
     </row>
   </sheetData>
